--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058A63F4-E8E0-435D-BE1C-4EBB63491080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEEFB19-E21F-4C44-8531-83EB5AE71457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{EB97F9FD-7DF8-4E90-9918-DF755A797D65}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{339AE2F0-1027-4385-BA5C-CB09FE396465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C0DC4A-9E3F-429D-B205-98BD0C387E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3119DB6D-9A8D-4384-8A98-D408AE1ACD96}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>5.1927735327119828</v>
+        <v>5.1927735327119713</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEEFB19-E21F-4C44-8531-83EB5AE71457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8655C366-07F0-4F4E-AD1C-AEB37E2159AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{339AE2F0-1027-4385-BA5C-CB09FE396465}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{2FFF1D0C-351F-4A2F-A44A-62845F23FEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3119DB6D-9A8D-4384-8A98-D408AE1ACD96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B48226-5B5C-4DDF-A343-BC9A4E1E898C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5.1927735327119713</v>
+        <v>5.1927735327119739</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8655C366-07F0-4F4E-AD1C-AEB37E2159AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D04B51-4A38-43BB-9C64-422836C09EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{2FFF1D0C-351F-4A2F-A44A-62845F23FEB0}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{90D87D1B-B0CB-4302-9D95-63F8BB74E6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B48226-5B5C-4DDF-A343-BC9A4E1E898C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D05D7B8-7F7F-49FE-98CB-C082D45C4BFE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5.1927735327119739</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D04B51-4A38-43BB-9C64-422836C09EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B92CA-6C44-4DA0-AB45-A6C0FA5F9EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{90D87D1B-B0CB-4302-9D95-63F8BB74E6B3}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{549CDBC0-D5D5-44C1-BE60-EB7940876288}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D05D7B8-7F7F-49FE-98CB-C082D45C4BFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1DE232-81DA-4CA1-998C-65E2012A31ED}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
